--- a/Project Bao cao tu danh gia.xlsx
+++ b/Project Bao cao tu danh gia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dai hoc\Nam 3\JAVA\Chat-System-Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C1D907-42C9-49BC-A8D3-FDED230F4D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D42367-F9F3-47FE-BFDB-ED0399BE94BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thong tin nhom" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,17 @@
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -478,7 +489,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -531,12 +542,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="46" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -922,30 +932,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E6216A-2F29-BA4C-AE4A-7016A3A357DE}">
-  <dimension ref="A2:E11"/>
+  <dimension ref="A2:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6875" customWidth="1"/>
-    <col min="2" max="2" width="26.6875" customWidth="1"/>
-    <col min="3" max="3" width="26.8125" customWidth="1"/>
-    <col min="4" max="4" width="29.3125" customWidth="1"/>
-    <col min="5" max="5" width="29.8125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="2" max="2" width="26.69921875" customWidth="1"/>
+    <col min="3" max="3" width="26.796875" customWidth="1"/>
+    <col min="4" max="4" width="29.296875" customWidth="1"/>
+    <col min="5" max="5" width="29.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -959,35 +969,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="4">
         <v>349556752</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -1004,29 +1014,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>22127074</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>855754079</v>
+      </c>
       <c r="E8" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>22127444</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="4">
@@ -1035,20 +1047,6 @@
       <c r="E9" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1068,23 +1066,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.1875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="44.6875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="44.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1"/>
-    <col min="4" max="4" width="31.3125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.3125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1109,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13" t="s">
         <v>17</v>
@@ -1126,7 +1124,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -1140,7 +1138,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -1161,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>1.2</v>
       </c>
@@ -1182,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>1.3</v>
       </c>
@@ -1203,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>1.4</v>
       </c>
@@ -1224,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>1.5</v>
       </c>
@@ -1245,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1.6</v>
       </c>
@@ -1266,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>1.7</v>
       </c>
@@ -1287,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -1322,7 +1320,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>3.1</v>
       </c>
@@ -1343,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>3.2</v>
       </c>
@@ -1364,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>3.3</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>3.4</v>
       </c>
@@ -1406,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>4</v>
       </c>
@@ -1420,7 +1418,7 @@
       <c r="E17" s="7"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>4.0999999999999996</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>4.2</v>
       </c>
@@ -1462,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>4.3</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>5</v>
       </c>
@@ -1497,7 +1495,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>5.0999999999999996</v>
       </c>
@@ -1518,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>5.2</v>
       </c>
@@ -1539,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>6</v>
       </c>
@@ -1560,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>7</v>
       </c>
@@ -1574,7 +1572,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>7.1</v>
       </c>
@@ -1595,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>7.2</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="15">
         <v>7.3</v>
       </c>
@@ -1637,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>8</v>
       </c>
@@ -1651,7 +1649,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>8.1</v>
       </c>
@@ -1672,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>8.1999999999999993</v>
       </c>
@@ -1693,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <v>8.3000000000000007</v>
       </c>
@@ -1714,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <v>9</v>
       </c>
@@ -1735,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="20" t="s">
         <v>44</v>
@@ -1745,7 +1743,7 @@
       <c r="E34" s="7"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>1</v>
       </c>
@@ -1766,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>2</v>
       </c>
@@ -1787,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>3</v>
       </c>
@@ -1808,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>4</v>
       </c>
@@ -1829,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>5</v>
       </c>
@@ -1850,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>6</v>
       </c>
@@ -1862,7 +1860,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>6.1</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>6.2</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>6.3</v>
       </c>
@@ -1925,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>6.4</v>
       </c>
@@ -1946,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>7</v>
       </c>
@@ -1958,7 +1956,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>7.1</v>
       </c>
@@ -1979,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>7.2</v>
       </c>
@@ -2000,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>8</v>
       </c>
@@ -2012,7 +2010,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="15">
         <v>8.1</v>
       </c>
@@ -2033,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="15">
         <v>8.1999999999999993</v>
       </c>
@@ -2054,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="15">
         <v>9</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="15">
         <v>10</v>
       </c>
@@ -2096,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="15">
         <v>11</v>
       </c>
@@ -2108,7 +2106,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>11.1</v>
       </c>
@@ -2129,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="15">
         <v>11.2</v>
       </c>
@@ -2150,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="15">
         <v>11.3</v>
       </c>
@@ -2171,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="15">
         <v>11.4</v>
       </c>
@@ -2192,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="15">
         <v>11.5</v>
       </c>
@@ -2213,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>11.6</v>
       </c>
@@ -2234,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>11.7</v>
       </c>
@@ -2255,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>12</v>
       </c>
@@ -2267,7 +2265,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="15">
         <v>12.1</v>
       </c>
@@ -2288,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="15">
         <v>12.2</v>
       </c>
@@ -2309,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="15">
         <v>12.3</v>
       </c>
@@ -2330,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="15">
         <v>12.4</v>
       </c>
@@ -2351,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="15">
         <v>12.5</v>
       </c>
@@ -2372,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="15">
         <v>12.6</v>
       </c>
@@ -2393,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>12.7</v>
       </c>
@@ -2403,7 +2401,7 @@
       <c r="C68" s="5">
         <v>0.25</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="7"/>
